--- a/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2768310042", "https://openalex.org/W4280526269", "https://openalex.org/W2140429834", "https://openalex.org/W2076826644", "https://openalex.org/W2404656039", "https://openalex.org/W2225801803", "https://openalex.org/W2073862919", "https://openalex.org/W2326058387", "https://openalex.org/W2018937175", "https://openalex.org/W4307977424")</t>
+          <t>c("https://openalex.org/W2076826644", "https://openalex.org/W2225801803", "https://openalex.org/W2073862919", "https://openalex.org/W4240451473", "https://openalex.org/W2085723445", "https://openalex.org/W3112219715", "https://openalex.org/W2057269222", "https://openalex.org/W140290947", "https://openalex.org/W2977994658", "https://openalex.org/W3157738441")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W74777404", "https://openalex.org/W1989816492", "https://openalex.org/W2912320053", "https://openalex.org/W1969284956", "https://openalex.org/W2379906542", "https://openalex.org/W128299151", "https://openalex.org/W1888887531", "https://openalex.org/W180151115", "https://openalex.org/W2083609350", "https://openalex.org/W2093428612")</t>
+          <t>c("https://openalex.org/W1989816492", "https://openalex.org/W2912320053", "https://openalex.org/W1969284956", "https://openalex.org/W74777404", "https://openalex.org/W2379906542", "https://openalex.org/W2083609350", "https://openalex.org/W128299151", "https://openalex.org/W1888887531", "https://openalex.org/W180151115", "https://openalex.org/W4230400104")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,516 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sarah Tariq</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280526269</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Abstract #1174427: Secondary Adrenal Insufficiency presenting as a Transient Ischemic Attack with Hypoglycemia</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5050285540", au_display_name = "Sarah Tariq", au_orcid = NA, author_position = "first", au_affiliation_raw = "Banner University Medical Center Tucson", institution_id = "https://openalex.org/I4210124665", institution_display_name = "Banner - University Medical Center Tucson", institution_ror = "https://ror.org/02xbk5j62", institution_country_code = "US", institution_type = "healthcare", institution_lineage = "https://openalex.org/I4210124665")</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adrenal insufficiency (AI) varies in clinical presentation which often leads to delay in diagnosis. Primary AI is reliably diagnosed by the cosyntropin stimulation test. Secondary AI is often more challenging to diagnose as it often presents with subtle clinical symptoms and dynamic testing is unreliable early in the disease process. The metyrapone suppression test is a reliable method of diagnosing secondary AI; however, metyrapone is not readily available at all facilities and is a barrier to establishing the diagnosis.</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>Endocrine Practice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Endocrine Practice</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S165390330</t>
+          <t>https://doi.org/10.1016/j.eprac.2022.03.035</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1530-891X</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.eprac.2022.03.035</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>http://www.endocrinepractice.org/article/S1530891X22001239/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.endocrinepractice.org/article/S1530891X22001239/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4280526269</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4280526269", doi = "https://doi.org/10.1016/j.eprac.2022.03.035")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.eprac.2022.03.035</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2076826644", "https://openalex.org/W2225801803", "https://openalex.org/W2073862919", "https://openalex.org/W4240451473", "https://openalex.org/W2085723445", "https://openalex.org/W3112219715", "https://openalex.org/W2057269222", "https://openalex.org/W140290947", "https://openalex.org/W2977994658", "https://openalex.org/W3157738441")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Cynthia Rivas Pajuelo, Sarah Tariq</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307804664</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>PSAT194 Prolonged Hypercalcemia after Calcium Sulfate Beads Use</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5077571117", "https://openalex.org/A5050285540"), au_display_name = c("Cynthia Rivas Pajuelo", "Sarah Tariq"), au_orcid = c(NA, NA), author_position = c("first", "last"), au_affiliation_raw = c("", ""), institution_id = c(NA, NA), institution_display_name = c(NA, NA), institution_ror = c(NA, NA), institution_country_code = c(NA, NA), institution_type = c(NA, NA), institution_lineage = c(NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abstract Calcium sulfate beads (CSB) preparations are used for antibiotic release to prevent or treat periprosthetic infections. Transient hypercalcemia in the setting of CSB use have been reported, with most cases being mild. Here we present a case of prolonged hypercalcemia after the use of CSB A 92-year old man with history of CKD stage is admitted to the hospital after sustaining a fall. He underwent a right femur periprosthetic fracture repair. Intraoperatively, he received 30 cc of antibiotic impregnated calcium sulfate beads into the wound. Preoperative labs showed calcium of 9.8 mg/dl, albumin 3.6g/dL, with creatinine of 1.6 mg/dl. 48-hours post-operative, patient developed acute encephalopathy, with laboratory analysis showing a calcium corrected for albumin raising up to 13.2 mg/dL, and creatinine of 1.8 mg/dl in the following days. PTH levels, PTH-rp, 25-OH Vitamin D were normal. He had no history of calcium disorders, kidney stones or pathological fractures. He was started on gentle IV fluids with normal saline, and calcitonin weight based (4 iu/kg) every 12 hours for a total of 6 doses with no improvement of calcium levels. Since he continued with persistent hypercalcemia, we decided to give 1 dose of Zoledronic Acid IV. Patient mental status improved; and calcium levels normalized along with creatinine 11 days after Zoledronic acid. Hypercalcemia secondary to CSB is rare. The use of CSB implantation has increased by orthopedics in the last years. CSB releases 100% of its antibiotic load to improve antibiotic delivery for prevention and treatment of peri-prosthetic infections. There are only two studies evaluating the outcomes of CSB that reported hypercalcemia. In a prospective observational study involving 755 patients receiving CSB implantation, only 5.7% developed mild hypercalcemia, and 2 of them were symptomatic, requiring IV fluids and 1 dose of Bisphosphonates. Hypercalcemia can appear 1 day post-operatively and improve after 5 days. Infrequently, hypercalcemia can be moderate to severe causing symptoms as in our patient. It is important to keep in mind transient hypercalcemia with the use of CSB, especially in high-risk patients. Discussion should include alternate options to prevent peri-prosthetic infections and closer monitoring of calcium and creatinine within the first 24-48 hours of implantation. To our knowledge, this is the second case report of prolonged moderate to severe hypercalcemia. Presentation: Saturday, June 11, 2022 1:00 p.m. - 3:00 p.m.</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>Journal of the Endocrine Society</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Journal of the Endocrine Society</t>
+          <t>Endocrine Society</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2735747656</t>
+          <t>https://doi.org/10.1210/jendso/bvac150.426</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Endocrine Society</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2472-1972</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1210/jendso/bvac150.426</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/jes/article-pdf/6/Supplement_1/A207/47383712/bvac150.426.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>A207</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>A208</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Supplement_1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/jes/article-pdf/6/Supplement_1/A207/47383712/bvac150.426.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4307804664</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4307804664", doi = "https://doi.org/10.1210/jendso/bvac150.426")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1210/jendso/bvac150.426</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1989816492", "https://openalex.org/W2912320053", "https://openalex.org/W1969284956", "https://openalex.org/W74777404", "https://openalex.org/W2379906542", "https://openalex.org/W2083609350", "https://openalex.org/W128299151", "https://openalex.org/W1888887531", "https://openalex.org/W180151115", "https://openalex.org/W4230400104")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sarah Tariq_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Banner University Medical Center Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280526269</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Abstract #1174427: Secondary Adrenal Insufficiency presenting as a Transient Ischemic Attack with Hypoglycemia</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Endocrine Practice</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.eprac.2022.03.035</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.eprac.2022.03.035</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307804664</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>PSAT194 Prolonged Hypercalcemia after Calcium Sulfate Beads Use</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of the Endocrine Society</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Endocrine Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/jendso/bvac150.426</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1210/jendso/bvac150.426</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
